--- a/2.0_mod_rework/Combat/weapon spreadsheet.xlsx
+++ b/2.0_mod_rework/Combat/weapon spreadsheet.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A606463D-631F-4011-9CD9-432B0A5F6EC2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{B0C87D61-94C4-4543-8456-C868BBB37C70}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2" xr2:uid="{B0C87D61-94C4-4543-8456-C868BBB37C70}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Weapon Types" sheetId="1" r:id="rId1"/>
+    <sheet name="Ammo Types" sheetId="2" r:id="rId2"/>
+    <sheet name="Prototype Stats" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="162">
   <si>
     <t>weapon name</t>
   </si>
@@ -90,15 +92,9 @@
     <t>Hull damage +10%</t>
   </si>
   <si>
-    <t>Armour Piercing, High Explosive, Air-Burst</t>
-  </si>
-  <si>
     <t>Burning Crystals, Focus Crystals, Electro-magnetic Crystals</t>
   </si>
   <si>
-    <t>High Explosive, Air-Burst</t>
-  </si>
-  <si>
     <t>Uranium, Hydrogen, Insperium</t>
   </si>
   <si>
@@ -216,18 +212,9 @@
     <t>Armour -25%</t>
   </si>
   <si>
-    <t>Armour pen +10% hull damage +30%</t>
-  </si>
-  <si>
-    <t>Shield pen +5% armour damage +10%</t>
-  </si>
-  <si>
     <t>Air-Burst</t>
   </si>
   <si>
-    <t>Shield damage +125%</t>
-  </si>
-  <si>
     <t>RG, CC, GRG, GAC</t>
   </si>
   <si>
@@ -285,9 +272,6 @@
     <t>Armour damage +75%</t>
   </si>
   <si>
-    <t>Shield damage +100%</t>
-  </si>
-  <si>
     <t>PL, BL</t>
   </si>
   <si>
@@ -355,6 +339,180 @@
   </si>
   <si>
     <t>Armour pen +10%</t>
+  </si>
+  <si>
+    <t>#All weapons will progress in "RANKS"</t>
+  </si>
+  <si>
+    <t>slot</t>
+  </si>
+  <si>
+    <t>windup</t>
+  </si>
+  <si>
+    <t>total fire time</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>tracking</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>damage min</t>
+  </si>
+  <si>
+    <t>damage max</t>
+  </si>
+  <si>
+    <t>#All windups are now minimum 0, max is determined in the "WINDUP" column</t>
+  </si>
+  <si>
+    <t>#Firerate, tracking and accuracy are now affected by "Crew training", a separate required component</t>
+  </si>
+  <si>
+    <t>#Higher ranks offer more shield, armour and hull damage/pen, but have lower firerates than lower stages</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>S,M,L</t>
+  </si>
+  <si>
+    <t>Railgun 50mm AP</t>
+  </si>
+  <si>
+    <t>Railgun 50mm HE</t>
+  </si>
+  <si>
+    <t>Railgun 50mm AB</t>
+  </si>
+  <si>
+    <t>Shield damage +150%</t>
+  </si>
+  <si>
+    <t>Railgun 100mm AP</t>
+  </si>
+  <si>
+    <t>Railgun 100mm HE</t>
+  </si>
+  <si>
+    <t>Railgun 100mm AB</t>
+  </si>
+  <si>
+    <t>Railgun 200mm AP</t>
+  </si>
+  <si>
+    <t>Railgun 200mm HE</t>
+  </si>
+  <si>
+    <t>Railgun 200mm AB</t>
+  </si>
+  <si>
+    <t>Railgun 400mm AP</t>
+  </si>
+  <si>
+    <t>Railgun 400mm HE</t>
+  </si>
+  <si>
+    <t>Railgun 400mm AB</t>
+  </si>
+  <si>
+    <t>########</t>
+  </si>
+  <si>
+    <t>#####</t>
+  </si>
+  <si>
+    <t>############</t>
+  </si>
+  <si>
+    <t>######</t>
+  </si>
+  <si>
+    <t>###</t>
+  </si>
+  <si>
+    <t>#############</t>
+  </si>
+  <si>
+    <t>######################</t>
+  </si>
+  <si>
+    <t>Armour pen +20% hull damage +25%</t>
+  </si>
+  <si>
+    <t>Armour pen +5% Hull damage +50%</t>
+  </si>
+  <si>
+    <t>Shield Penetration</t>
+  </si>
+  <si>
+    <t>Shield Damage</t>
+  </si>
+  <si>
+    <t>Armour Penetration</t>
+  </si>
+  <si>
+    <t>Armour Damage</t>
+  </si>
+  <si>
+    <t>Hull Damage</t>
+  </si>
+  <si>
+    <t>#################</t>
+  </si>
+  <si>
+    <t>##############</t>
+  </si>
+  <si>
+    <t>###########</t>
+  </si>
+  <si>
+    <t>Armour Piercing, High Explosive, Air-Burst, Canister</t>
+  </si>
+  <si>
+    <t>High Explosive, Air-Burst, Canister</t>
+  </si>
+  <si>
+    <t>Canister</t>
+  </si>
+  <si>
+    <t>RG, CC, AC</t>
+  </si>
+  <si>
+    <t>Railgun 50mm CAN</t>
+  </si>
+  <si>
+    <t>Armour Damage +200%, Shield damage -50%</t>
+  </si>
+  <si>
+    <t>Railgun 100mm CAN</t>
+  </si>
+  <si>
+    <t>Railgun 200mm CAN</t>
+  </si>
+  <si>
+    <t>Railgun 400mm CAN</t>
+  </si>
+  <si>
+    <t>Xl</t>
+  </si>
+  <si>
+    <t>##################</t>
   </si>
 </sst>
 </file>
@@ -407,11 +565,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -730,7 +890,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,18 +921,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -783,16 +943,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -800,81 +960,81 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -885,30 +1045,30 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -919,7 +1079,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -936,92 +1096,92 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1032,260 +1192,1114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50370EBC-0B55-4B4B-8A9B-E62C57AE7427}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.21875" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="55.88671875" customWidth="1"/>
     <col min="4" max="4" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A4F3C6-EA60-4D44-A187-7C71EA14B5C9}">
+  <dimension ref="A2:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="85.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I9">
+        <v>0.9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>0.9</v>
+      </c>
+      <c r="I10">
+        <v>0.9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>0.9</v>
+      </c>
+      <c r="I11">
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>0.9</v>
+      </c>
+      <c r="I12">
+        <v>0.9</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="4">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>7.5</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>80</v>
+      </c>
+      <c r="H13">
+        <v>0.8</v>
+      </c>
+      <c r="I13">
+        <v>0.7</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="4">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>80</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>0.7</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="4">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>0.8</v>
+      </c>
+      <c r="I15">
+        <v>0.7</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>0.8</v>
+      </c>
+      <c r="I16">
+        <v>0.7</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>2</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="4">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4">
+        <v>120</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>120</v>
+      </c>
+      <c r="H17">
+        <v>0.75</v>
+      </c>
+      <c r="I17">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="4">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4">
+        <v>140</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>120</v>
+      </c>
+      <c r="H18">
+        <v>0.75</v>
+      </c>
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="4">
+        <v>24</v>
+      </c>
+      <c r="D19" s="4">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>28</v>
+      </c>
+      <c r="G19">
+        <v>120</v>
+      </c>
+      <c r="H19">
+        <v>0.75</v>
+      </c>
+      <c r="I19">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="4">
+        <v>20</v>
+      </c>
+      <c r="D20" s="4">
+        <v>110</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>120</v>
+      </c>
+      <c r="H20">
+        <v>0.75</v>
+      </c>
+      <c r="I20">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="4">
+        <v>64</v>
+      </c>
+      <c r="D21" s="4">
+        <v>240</v>
+      </c>
+      <c r="E21">
+        <v>12.5</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>180</v>
+      </c>
+      <c r="H21">
+        <v>0.7</v>
+      </c>
+      <c r="I21">
+        <v>-0.1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="4">
+        <v>80</v>
+      </c>
+      <c r="D22" s="4">
+        <v>280</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>180</v>
+      </c>
+      <c r="H22">
+        <v>0.7</v>
+      </c>
+      <c r="I22">
+        <v>-0.1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="4">
+        <v>48</v>
+      </c>
+      <c r="D23" s="4">
+        <v>200</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>28</v>
+      </c>
+      <c r="G23">
+        <v>180</v>
+      </c>
+      <c r="H23">
+        <v>0.7</v>
+      </c>
+      <c r="I23">
+        <v>-0.1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="4">
+        <v>40</v>
+      </c>
+      <c r="D24" s="4">
+        <v>220</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>180</v>
+      </c>
+      <c r="H24">
+        <v>0.7</v>
+      </c>
+      <c r="I24">
+        <v>-0.1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" t="s">
+        <v>161</v>
+      </c>
+      <c r="M25" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
